--- a/excel_files/10.b.1.1.xlsx
+++ b/excel_files/10.b.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,12 +98,6 @@
     <t>10.b.1.1 Совокупный объем потоков ресурсов в целях развития в разбивке по странам-получателям и странам-донорам и видам потоков*</t>
   </si>
   <si>
-    <t>10.b.1 Total resource flows for development, by recipient and donor countries and type of flow (e.g. official development assistance, foreign direct investment and other flows)</t>
-  </si>
-  <si>
-    <t>10.b.1 Агымдардын түрлөрү жана алуучу өлкөлөр жана донор-өлкөлөр боюнча бөлунүшүндөгү  өнүктүрүү максатында ресурстар агымынын жалпы көлөмү</t>
-  </si>
-  <si>
     <t>Айыл чарба</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Others (EDB, Switzerland, IFAD, etc.)</t>
+  </si>
+  <si>
+    <t>10.b.1.1 Агымдардын түрлөрү жана алуучу өлкөлөр жана донор-өлкөлөр боюнча бөлунүшүндөгү  өнүктүрүү максатында ресурстар агымынын жалпы көлөмү</t>
+  </si>
+  <si>
+    <t>10.b.1.1 Total resource flows for development, by recipient and donor countries and type of flow (e.g. official development assistance, foreign direct investment and other flows)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,13 +570,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -630,18 +632,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4">
         <v>488.2</v>
@@ -670,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
         <v>4295</v>
@@ -699,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -722,13 +724,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4">
         <v>129.80000000000001</v>
@@ -751,13 +753,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4">
         <v>118.8</v>
@@ -780,13 +782,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4">
         <v>92</v>
@@ -809,13 +811,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4">
         <v>887.8</v>
@@ -838,13 +840,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4">
         <v>1600.3</v>
@@ -873,18 +875,18 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4">
         <v>10956.3</v>
@@ -907,13 +909,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4">
         <v>2128.1</v>
@@ -936,13 +938,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4">
         <v>2304.9</v>
@@ -971,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4">
         <v>487.3</v>
@@ -994,13 +996,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4">
         <v>585.20000000000005</v>
@@ -1023,13 +1025,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4">
         <v>755.4</v>
@@ -1052,13 +1054,13 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6">
         <v>223.3</v>
